--- a/BurndownChart/BurndownChart Sprint 1.xlsx
+++ b/BurndownChart/BurndownChart Sprint 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/magnram_ntnu_no/Documents/V2019/gruppe-35/BurndownChart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maggi\OneDrive - NTNU\V2019\gruppe-35\BurndownChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{232CA7CB-D6E0-43BC-B4EA-1194387B4FDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{232CA7CB-D6E0-43BC-B4EA-1194387B4FDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5F535411-B688-454A-9EEF-95FC00814934}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,132 +298,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -506,6 +380,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -536,6 +428,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -575,6 +485,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -605,6 +533,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -644,6 +590,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -679,6 +643,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -694,6 +676,24 @@
           <color indexed="64"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -969,6 +969,9 @@
                 <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1119,6 +1122,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2308,33 +2314,33 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Issue ID" totalsRowLabel="6" dataDxfId="19" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Issue ID" totalsRowLabel="6" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours ved start" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours ved start" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours ved start]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="14" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="8" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="B2:F17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="B2:F17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B2:F17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="0" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="0" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="2">
       <calculatedColumnFormula>TotalHours-(Table3[Work Day]*(TotalHours/15))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{731F4FCE-3968-42EE-A2AB-B035450B4F5A}" name="User stories left in sprint" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{731F4FCE-3968-42EE-A2AB-B035450B4F5A}" name="User stories left in sprint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2809,7 +2815,7 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -2982,8 +2988,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>7.4666666666666668</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">

--- a/BurndownChart/BurndownChart Sprint 1.xlsx
+++ b/BurndownChart/BurndownChart Sprint 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maggi\OneDrive - NTNU\V2019\gruppe-35\BurndownChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{232CA7CB-D6E0-43BC-B4EA-1194387B4FDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5F535411-B688-454A-9EEF-95FC00814934}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{232CA7CB-D6E0-43BC-B4EA-1194387B4FDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{BBA3FEE8-5016-4601-8DB2-D4932BB5F488}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BacklogTable" sheetId="1" r:id="rId1"/>
@@ -967,7 +967,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1121,7 +1121,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2814,7 +2814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2971,10 +2971,10 @@
         <v>8.5333333333333332</v>
       </c>
       <c r="E9" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F9" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">

--- a/BurndownChart/BurndownChart Sprint 1.xlsx
+++ b/BurndownChart/BurndownChart Sprint 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maggi\OneDrive - NTNU\V2019\gruppe-35\BurndownChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{232CA7CB-D6E0-43BC-B4EA-1194387B4FDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{BBA3FEE8-5016-4601-8DB2-D4932BB5F488}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{232CA7CB-D6E0-43BC-B4EA-1194387B4FDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5E02AA9D-2C85-48DC-A3EB-0A368EFDD0A3}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -273,7 +273,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -972,6 +971,27 @@
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1124,6 +1144,24 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2660,7 +2698,7 @@
       <c r="C3" s="4">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
@@ -2678,7 +2716,7 @@
       <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
@@ -2696,7 +2734,7 @@
       <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
@@ -2714,7 +2752,7 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
@@ -2732,7 +2770,7 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
@@ -2743,7 +2781,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -2751,7 +2789,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -2759,7 +2797,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -2767,7 +2805,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -2814,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -2864,7 +2902,7 @@
       <c r="E3" s="7">
         <v>15</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>5</v>
       </c>
     </row>
@@ -2883,7 +2921,7 @@
       <c r="E4" s="7">
         <v>10</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2901,7 +2939,7 @@
       <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2919,7 +2957,7 @@
       <c r="E6" s="7">
         <v>16</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>6</v>
       </c>
     </row>
@@ -2937,7 +2975,7 @@
       <c r="E7" s="7">
         <v>12</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2955,7 +2993,7 @@
       <c r="E8" s="7">
         <v>12</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2973,7 +3011,7 @@
       <c r="E9" s="7">
         <v>9</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2991,7 +3029,7 @@
       <c r="E10" s="7">
         <v>0</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>0</v>
       </c>
     </row>
@@ -3006,8 +3044,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>6.4</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -3020,8 +3062,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>5.3333333333333339</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
@@ -3034,8 +3080,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>4.2666666666666675</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="7">
+        <v>15</v>
+      </c>
+      <c r="F13" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -3048,8 +3098,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>3.1999999999999993</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="7">
+        <v>11</v>
+      </c>
+      <c r="F14" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
@@ -3062,8 +3116,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>2.1333333333333329</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
@@ -3077,8 +3135,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>1.0666666666666664</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="14"/>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
@@ -3092,8 +3154,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>0</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="14"/>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
